--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="393">
   <si>
     <t>title</t>
   </si>
@@ -31,33 +31,306 @@
     <t>[1/6] Medabots Metabee (Metal Beetle) – Medarot</t>
   </si>
   <si>
+    <t>3D Embossing Tape for Lining – Black – Dymo / Cidy</t>
+  </si>
+  <si>
+    <t>3M Softback Sanding Sponge – Fine</t>
+  </si>
+  <si>
+    <t>3M Softback Sanding Sponge – Micro Fine</t>
+  </si>
+  <si>
+    <t>3M Softback Sanding Sponge – Super Fine</t>
+  </si>
+  <si>
+    <t>Action Base 2 – Sparkle Green</t>
+  </si>
+  <si>
+    <t>Airbrush System for Gundam Marker</t>
+  </si>
+  <si>
+    <t>Atra Mixta – Official IBO Chara Key Chain</t>
+  </si>
+  <si>
+    <t>Bandai Spirits Entry Nipper – White</t>
+  </si>
+  <si>
+    <t>[Converge] Bolinoak Sammahn</t>
+  </si>
+  <si>
+    <t>[Converge] Byg-Zam &amp; Core Booster (Big Zam)</t>
+  </si>
+  <si>
+    <t>[Converge] Doven Wolf</t>
+  </si>
+  <si>
+    <t>[Converge] Gaplant</t>
+  </si>
+  <si>
+    <t>[Converge] Gerbera Tetra</t>
+  </si>
+  <si>
+    <t>[Converge] GM Command – #18</t>
+  </si>
+  <si>
+    <t>[Converge] GM Command Space Type – #18</t>
+  </si>
+  <si>
+    <t>[Converge] Gogg – #16</t>
+  </si>
+  <si>
+    <t>[Converge] Gun Blaster – #18</t>
+  </si>
+  <si>
+    <t>[Converge] Gundam Geminass 01 – #18</t>
+  </si>
+  <si>
+    <t>[Converge] Gundam GP00 Blossom</t>
+  </si>
+  <si>
+    <t>[Converge] Kampfer – #18</t>
+  </si>
+  <si>
+    <t>[Converge] RXF-91A Silhouette Gundam Kai – #15</t>
+  </si>
+  <si>
+    <t>[Converge] Stark Jegan</t>
+  </si>
+  <si>
+    <t>[Converge] Victory Two Gundam – #18</t>
+  </si>
+  <si>
+    <t>[Converge] ZGok / Z’Gok (Char Aznable use) – #15</t>
+  </si>
+  <si>
+    <t>[Converge] ZGok / Z’Gok (mass production ver.) – #17</t>
+  </si>
+  <si>
+    <t>Ein Dalton – Official IBO Chara Key Chain</t>
+  </si>
+  <si>
+    <t>FA-78-1 Full Armor Gundam Head – Exceed Model</t>
+  </si>
+  <si>
+    <t>Figure-rise Bust Fumina Hoshino – Ending Ver.</t>
+  </si>
+  <si>
+    <t>[Figure Rise] Omnimon / Omegamon (Amplified)</t>
+  </si>
+  <si>
+    <t>Figure-rise Standard Yuuki Asuna – SAO</t>
+  </si>
+  <si>
     <t>[Figure Rise] Wargreymon (Amplified)</t>
   </si>
   <si>
+    <t>[GFrame] Full Armor Gundam Armor &amp; Frame Set – Vol. 07 / 7</t>
+  </si>
+  <si>
+    <t>[GFrame] Gelgoog Armor &amp; Frame Set – Vol. 08 / 8</t>
+  </si>
+  <si>
+    <t>[GFrame] Gelgoog (Char use) Armor &amp; Frame set – Vol. 04 / 4</t>
+  </si>
+  <si>
+    <t>[GFrame] Gundam Ground Type Armor &amp; Frame Set – Vol. 06 / 6</t>
+  </si>
+  <si>
+    <t>[GFrame] RX-77-2 Guncannon Armor &amp; Frame Set – Vol. 06 / 6</t>
+  </si>
+  <si>
+    <t>[GFrame] RX-78-4 Gundam Unit 4 G04 Armor &amp; Frame Set – Vol. 07 / 7</t>
+  </si>
+  <si>
+    <t>[GFrame] RX-78-5 Gundam Unit 5 G05 Armor &amp; Frame Set – Vol. 06 / 6</t>
+  </si>
+  <si>
+    <t>[GFrame] RX-79[G] Gundam EZ8 Armor &amp; Frame Set – Vol. 08 / 8</t>
+  </si>
+  <si>
+    <t>[GFrame] RX-93 Nu Gundam Armor &amp; Frame Set – Vol. 01 / 1</t>
+  </si>
+  <si>
+    <t>GP Base</t>
+  </si>
+  <si>
+    <t>Gundam Marker Black (GM10)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Blue (GM06)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Brush Type – Black (GM20)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Brush Type – Gray (GM21)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Eraser (GM300)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Eye Green (GM09)</t>
+  </si>
+  <si>
+    <t>Gundam Marker GM-303 Pour Type For Panel Line – Brown</t>
+  </si>
+  <si>
+    <t>Gundam Marker Grey (GM12)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Mecha Gray (GM13)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Metallic – Meta Blue (GM17)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Metallic – Meta Green (GM18)</t>
+  </si>
+  <si>
+    <t>Gundam Marker GM-302 Pour Type for Panel Line – Grey</t>
+  </si>
+  <si>
+    <t>Gundam Marker Real Touch – Blurring Pen (GM400)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Real Touch – Brown 1 (GM407)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Real Touch – Gray 2 (GM402)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Real Touch – Gray 3 (GM406)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Real Touch – Red 1 (GM404)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Real Touch Set 1</t>
+  </si>
+  <si>
+    <t>Gundam Marker Real Touch Set 2</t>
+  </si>
+  <si>
+    <t>Gundam Marker Red (GM07)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Set – Advance</t>
+  </si>
+  <si>
+    <t>Gundam Marker Set – SEED Destiny</t>
+  </si>
+  <si>
+    <t>Gundam Marker Set (Ultra Thin Pen Point) for Lining – Black &amp; Brown (GM01 + GM03)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Set (Ultra Thin Pen Point) for Lining – Grey &amp; Brown (GM02 + GM03)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Set (Ultra Thin Pen Point) for Lining – Black &amp; Grey (GM01 + GM02)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Set – Zeon</t>
+  </si>
+  <si>
+    <t>Gundam Marker Silver (GM05)</t>
+  </si>
+  <si>
+    <t>Gundam Marker (Ultra Thin Pen Point) for Lining – Black (GM01)</t>
+  </si>
+  <si>
+    <t>Gundam Marker (Ultra Thin Pen Point) for Lining – Brown (GM03)</t>
+  </si>
+  <si>
+    <t>Gundam Marker (Ultra Thin Pen Point) for Lining – Grey (GM02)</t>
+  </si>
+  <si>
+    <t>Gundam Marker White (GM11)</t>
+  </si>
+  <si>
+    <t>Gundam Marker Yellow (GM08)</t>
+  </si>
+  <si>
+    <t>[HaroPla] Black Tri Haro</t>
+  </si>
+  <si>
+    <t>[HaroPla] Haro Basic Green</t>
+  </si>
+  <si>
+    <t>[HaroPla] Haro Control Blue</t>
+  </si>
+  <si>
+    <t>[HaroPla] Haro Diva Red</t>
+  </si>
+  <si>
     <t>[HaroPla] Haro Loader</t>
   </si>
   <si>
+    <t>[HaroPla] Haro Shooting Orange</t>
+  </si>
+  <si>
+    <t>[HaroPla] Momo Haro</t>
+  </si>
+  <si>
+    <t>[HG] 00 Raiser Designer Color Ver.</t>
+  </si>
+  <si>
+    <t>[HG] 00 Raiser (GN Condenser Type)</t>
+  </si>
+  <si>
+    <t>[HG] 00 Raiser + GN Sword III</t>
+  </si>
+  <si>
+    <t>[HG] 00 Raiser – Trans Am</t>
+  </si>
+  <si>
     <t>[HG] Aile Strike Gundam (HGCE)</t>
   </si>
   <si>
     <t>[HG] Alus Earthree Gundam</t>
   </si>
   <si>
+    <t>[HG] AMS-119 Geara Doga</t>
+  </si>
+  <si>
     <t>[HG] AMS-129 Geara Zulu (Guards Type)</t>
   </si>
   <si>
+    <t>[HG] Arios Gundam GNHW/M</t>
+  </si>
+  <si>
+    <t>[HG] Base Jabber (Unicorn Ver.)</t>
+  </si>
+  <si>
+    <t>[HG] Changeling Rifle</t>
+  </si>
+  <si>
     <t>[HG] Core Gundam &amp; Marsfour Unit</t>
   </si>
   <si>
     <t>[HG] Core Gundam &amp; Veetwo Unit</t>
   </si>
   <si>
+    <t>[HG] Crossbone Gundam X1</t>
+  </si>
+  <si>
     <t>[HG] Danazine</t>
   </si>
   <si>
     <t>[HG] Destiny Gundam (HGCE)</t>
   </si>
   <si>
+    <t>[HG] Earthree Gundam</t>
+  </si>
+  <si>
+    <t>[HG] FA-78 Full Armor Gundam (Gundam Thunderbolt Anime Ver.)</t>
+  </si>
+  <si>
+    <t>[HG] Freedom Gundam (35th Revive)</t>
+  </si>
+  <si>
+    <t>[HG] Full Armor Unicorn Gundam [Destroy Mode]</t>
+  </si>
+  <si>
     <t>[HG] G Bouncer</t>
   </si>
   <si>
@@ -67,6 +340,24 @@
     <t>[HG] G Xiphos</t>
   </si>
   <si>
+    <t>[HG] GM Custom</t>
+  </si>
+  <si>
+    <t>[HG] GM Ground Type</t>
+  </si>
+  <si>
+    <t>[HG] GN X III A Laws Type</t>
+  </si>
+  <si>
+    <t>[HG] God Gundam</t>
+  </si>
+  <si>
+    <t>[HG] Gouf Custom</t>
+  </si>
+  <si>
+    <t>[HG] Ground Gundam Type S (Gundam Thunderbolt Anime ver.)</t>
+  </si>
+  <si>
     <t>[HG] Gundam 00 Shia Qan[T] (QanT / Quanta)</t>
   </si>
   <si>
@@ -76,15 +367,27 @@
     <t>[HG] Gundam AGE 1 Normal</t>
   </si>
   <si>
+    <t>[HG] Gundam AGE 2 Dark Hound</t>
+  </si>
+  <si>
     <t>[HG] Gundam AGE FX</t>
   </si>
   <si>
+    <t>[HG] Gundam Amazing Exia</t>
+  </si>
+  <si>
     <t>[HG] Gundam Astraea</t>
   </si>
   <si>
     <t>[HG] Gundam Astraea Type F</t>
   </si>
   <si>
+    <t>[HG] Gundam Astray Blue Frame</t>
+  </si>
+  <si>
+    <t>[HG] Gundam Astray Blue Frame Second L</t>
+  </si>
+  <si>
     <t>[HG] Gundam Astray No Name</t>
   </si>
   <si>
@@ -94,21 +397,39 @@
     <t>[HG] Gundam Barbatos Lupus Rex</t>
   </si>
   <si>
+    <t>[HG] Gundam Delta Kai</t>
+  </si>
+  <si>
     <t>[HG] Gundam Dynames</t>
   </si>
   <si>
     <t>[HG] Gundam Exia</t>
   </si>
   <si>
+    <t>[HG] Gundam Exia Dark Matter</t>
+  </si>
+  <si>
     <t>[HG] Gundam Exia Repair II</t>
   </si>
   <si>
+    <t>[HG] Gundam Fenice Rinascita</t>
+  </si>
+  <si>
+    <t>[HG] Gundam G Else</t>
+  </si>
+  <si>
+    <t>[HG] Gundam G-Self Atmospheric Pack</t>
+  </si>
+  <si>
     <t>[HG] Gundam G-Self Perfect Pack</t>
   </si>
   <si>
     <t>[HG] Gundam GP Rase Two Ten</t>
   </si>
   <si>
+    <t>[HG] Gundam Ground Type – Revive</t>
+  </si>
+  <si>
     <t>[HG] Gundam Kyrios</t>
   </si>
   <si>
@@ -118,24 +439,144 @@
     <t>[HG] Gundam Nadleeh</t>
   </si>
   <si>
+    <t>[HG] Gundam Narrative C Packs</t>
+  </si>
+  <si>
+    <t>[HG] Gundam Sandrock (HGAC)</t>
+  </si>
+  <si>
+    <t>[HG] Gundam Shining Break</t>
+  </si>
+  <si>
+    <t>[HG] Gundam Tertium</t>
+  </si>
+  <si>
+    <t>HG Gundam The Origin Multiuse Series 2 Bandai Water Decal</t>
+  </si>
+  <si>
+    <t>HG Gundam The Origin Multiuse Series 3 Bandai Water Decal</t>
+  </si>
+  <si>
     <t>[HG] Gundam Throne Drei</t>
   </si>
   <si>
     <t>[HG] Gundam Throne Eins</t>
   </si>
   <si>
+    <t>[HG] Gundam Vidar</t>
+  </si>
+  <si>
+    <t>[HG] Gundam Virtue – Trans Am</t>
+  </si>
+  <si>
     <t>[HG] Gundam Zabanya</t>
   </si>
   <si>
+    <t>[HG] Gunpla Starter Set Vol.2: RX-78-2 Gundam &amp; Gundam Marker Set</t>
+  </si>
+  <si>
+    <t>[HG] Gustav Karl (Unicorn Ver.)</t>
+  </si>
+  <si>
+    <t>[HG] Impulse Gundam Lancier</t>
+  </si>
+  <si>
     <t>[HG] Infinite Justice Gundam (HGCE)</t>
   </si>
   <si>
+    <t>[HG] Jegan Blast Master (Blastmaster)</t>
+  </si>
+  <si>
+    <t>[HG] Jesta</t>
+  </si>
+  <si>
+    <t>[HG] Jesta Shezarr Type – Team A</t>
+  </si>
+  <si>
     <t>[HG] Jet Windam (HGCE)</t>
   </si>
   <si>
+    <t>[HG] Jupitive Gundam</t>
+  </si>
+  <si>
+    <t>[HG] Justice Knight Gundam</t>
+  </si>
+  <si>
+    <t>[HG] MS-18E Kampfer</t>
+  </si>
+  <si>
+    <t>[HG] Loto Twin Set</t>
+  </si>
+  <si>
+    <t>[HG] Mazinkaiser – Infinitism</t>
+  </si>
+  <si>
+    <t>[HG] MS-05S Zaku I – The Origin (Char Aznable use)</t>
+  </si>
+  <si>
     <t>[HG] MS-09F DomTropen / Dom Tropen Sand Brown</t>
   </si>
   <si>
+    <t>[HG] MS-14S Char’s Gelgoog</t>
+  </si>
+  <si>
+    <t>[HG] MSM-04G Juaggu Unicorn ver.</t>
+  </si>
+  <si>
+    <t>[HG] MSM-04 Acguy</t>
+  </si>
+  <si>
+    <t>[HG] MSM-07 ZGok / Z’Gok</t>
+  </si>
+  <si>
+    <t>[HG] MSN-04 Sazabi</t>
+  </si>
+  <si>
+    <t>[HG] NZ-666 Kshatriya</t>
+  </si>
+  <si>
+    <t>[HG] Ogre GN X</t>
+  </si>
+  <si>
+    <t>[HG] ORX-005 Gaplant TR-5 (Hrairoo)</t>
+  </si>
+  <si>
+    <t>[HG] OZ-06MS Leo (HGAC)</t>
+  </si>
+  <si>
+    <t>[HG] Penelope</t>
+  </si>
+  <si>
+    <t>[HG] Raider Gundam (Remaster – R10)</t>
+  </si>
+  <si>
+    <t>[HG] RGM-79SP GM Sniper II</t>
+  </si>
+  <si>
+    <t>[HG] RGM-96X Jesta Cannon</t>
+  </si>
+  <si>
+    <t>[HG] Rick Dias (Quattro Custom)</t>
+  </si>
+  <si>
+    <t>[HG] RX-0 Unicorn Gundam 02 Banshee [Destroy Mode]</t>
+  </si>
+  <si>
+    <t>[HG] RX-0 Unicorn Gundam [Destroy Mode]</t>
+  </si>
+  <si>
+    <t>[HG] RX-0 Unicorn Gundam Unicorn Mode + Head Display Base</t>
+  </si>
+  <si>
+    <t>[HG] RX-121-1 Gundam TR-1 [Hazel Custom]</t>
+  </si>
+  <si>
+    <t>[HG] RX-121-2 Gundam TR-1 [Hazel II]</t>
+  </si>
+  <si>
+    <t>[HG] RX-77-2 Guncannon Revive</t>
+  </si>
+  <si>
     <t>[HG] RX-78-02 Gundam The Origin Ver.</t>
   </si>
   <si>
@@ -148,12 +589,33 @@
     <t>[HG] RX-78GP02A Gundam Physalis</t>
   </si>
   <si>
+    <t>[HG] RX-78GP03S Gundam GP03S</t>
+  </si>
+  <si>
+    <t>[HG] RX-79[G]Ez-8 Gundam Ez8</t>
+  </si>
+  <si>
+    <t>[HG] Sinanju Stein Narrative Ver.</t>
+  </si>
+  <si>
+    <t>[HG] RGM-89S Stark Jegan</t>
+  </si>
+  <si>
     <t>[HG] Strike Freedom Gundam Revive (HGCE)</t>
   </si>
   <si>
     <t>[HG] Susanowo</t>
   </si>
   <si>
+    <t>[HG] SVMS-01O Over Flag</t>
+  </si>
+  <si>
+    <t>[HG] Tieren Ground Type</t>
+  </si>
+  <si>
+    <t>[HG] Transient Gundam</t>
+  </si>
+  <si>
     <t>[HG] Union Flag Custom (Graham Aker use)</t>
   </si>
   <si>
@@ -166,57 +628,177 @@
     <t>[HG] Wodom Pod</t>
   </si>
   <si>
+    <t>[HG] Zaku Amazing</t>
+  </si>
+  <si>
+    <t>[HG] Zaku Half Cannon</t>
+  </si>
+  <si>
+    <t>[HG] Zaku I (Denim/Slender Unit)</t>
+  </si>
+  <si>
+    <t>[HG] Zaku I Sniper Type (Yonem Kirks)</t>
+  </si>
+  <si>
     <t>[HG] Zeta Gundam – Gunpla Evolution Project</t>
   </si>
   <si>
+    <t>[HG] Zeta Plus (Unicorn ver.)</t>
+  </si>
+  <si>
+    <t>[Hi-RM] Gundam Astray Noir (High Resolution Model / Hi-Res)</t>
+  </si>
+  <si>
     <t>[MG] 00 Qant Full Saber (Qan[T])</t>
   </si>
   <si>
+    <t>[MG] 00 Raiser</t>
+  </si>
+  <si>
+    <t>[MG] Aegis Gundam</t>
+  </si>
+  <si>
     <t>[MG] Aile Strike Gundam Ver. RM</t>
   </si>
   <si>
     <t>[MG] Astray Red Frame Kai</t>
   </si>
   <si>
+    <t>[MG] Blast Impulse Gundam (PBandai)</t>
+  </si>
+  <si>
+    <t>[MG] Build Strike Gundam Full Package</t>
+  </si>
+  <si>
+    <t>MG Force Impulse Gundam Bandai Water Decal</t>
+  </si>
+  <si>
+    <t>[MG] Geara Doga</t>
+  </si>
+  <si>
+    <t>[MG] GM Sniper Custom</t>
+  </si>
+  <si>
+    <t>[MG] GNT-0000 00 Qan[T] (QanT / Quanta)</t>
+  </si>
+  <si>
     <t>[MG] Gouf Custom</t>
   </si>
   <si>
     <t>[MG] Guncannon</t>
   </si>
   <si>
+    <t>[MG] Gundam Age II (2) Magnum</t>
+  </si>
+  <si>
+    <t>[MG] Gundam Astray Turn Red</t>
+  </si>
+  <si>
+    <t>[MG] Gundam Avalanche Exia Dash</t>
+  </si>
+  <si>
     <t>[MG] Gundam Deathscythe EW</t>
   </si>
   <si>
     <t>[MG] Gundam Exia</t>
   </si>
   <si>
+    <t>[MG] Gundam Exia Ignition Mode</t>
+  </si>
+  <si>
     <t>[MG] Gundam Heavyarms EW</t>
   </si>
   <si>
+    <t>[MG] Gundam Heavyarms EW (Igel Equipment)</t>
+  </si>
+  <si>
     <t>[MG] Gundam Kyrios</t>
   </si>
   <si>
+    <t>[MG] Gundam MK II Titans Ver 2.0</t>
+  </si>
+  <si>
     <t>[MG] Gundam Sandrock EW</t>
   </si>
   <si>
+    <t>[MG] Hyakushiki Ver. 2.0</t>
+  </si>
+  <si>
+    <t>[MG] MS-06F Zaku II Ver. 2.0</t>
+  </si>
+  <si>
     <t>[MG] MS-06S Zaku II Ver. 2.0 (Char Aznable use)</t>
   </si>
   <si>
     <t>[MG] MSN-001A1 Delta Plus</t>
   </si>
   <si>
+    <t>[MG] PLAN303E Deep Striker</t>
+  </si>
+  <si>
+    <t>[MG] RGM-89 Jegan</t>
+  </si>
+  <si>
+    <t>[MG] RX-0 Unicorn Gundam 02 Banshee</t>
+  </si>
+  <si>
     <t>[MG] RX-0 Unicorn Gundam (OVA)</t>
   </si>
   <si>
+    <t>[MG] RX-75 Guntank</t>
+  </si>
+  <si>
+    <t>[MG] RX-78-2 Gundam Ver.3.0</t>
+  </si>
+  <si>
     <t>[MG] RX-78 GP03S Gundam GP03 Stamen</t>
   </si>
   <si>
+    <t>[MG] RX-79(G) Gundam Ground Type</t>
+  </si>
+  <si>
+    <t>[MG] RX-79[G]Ez-8 Gundam Ez8</t>
+  </si>
+  <si>
+    <t>[MG] RX-93 Nu Gundam Ver. Ka</t>
+  </si>
+  <si>
     <t>[MG] Sazabi Ver. Ka</t>
   </si>
   <si>
+    <t>[MG] Shenlong Gundam EW Ver.</t>
+  </si>
+  <si>
+    <t>[MG] Shin Musha Gundam</t>
+  </si>
+  <si>
+    <t>MG Shin Musha Gundam Bandai Water Decal</t>
+  </si>
+  <si>
+    <t>[MG] Shin Musha Gundam ‘Sengoku No Jin’</t>
+  </si>
+  <si>
+    <t>[MG] Sinanju Stein Narrative ver.</t>
+  </si>
+  <si>
     <t>[MG] Strike Freedom Gundam</t>
   </si>
   <si>
+    <t>[MG] Strike Gundam IWSP</t>
+  </si>
+  <si>
+    <t>MG Strike Noir Gundam Bandai Water Decal</t>
+  </si>
+  <si>
+    <t>[MG] Sword Impulse Gundam</t>
+  </si>
+  <si>
+    <t>[MG] Turn A Gundam</t>
+  </si>
+  <si>
+    <t>[MG] Turn X</t>
+  </si>
+  <si>
     <t>[MG] Wing Gundam EW</t>
   </si>
   <si>
@@ -226,21 +808,174 @@
     <t>[MG] Wing Gundam Zero Custom</t>
   </si>
   <si>
+    <t>Mr. Air Super 190</t>
+  </si>
+  <si>
+    <t>Mr. Design Knife MT-701</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N2 – Black</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N24 – Orange Yellow</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N25 – Sky Blue</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N3 – Red</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N4 – Yellow</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N5 – Blue</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N6 – Green</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion N9 – Gold</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Acrysion Thinner 110ml</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Brush Flat No. 2</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Brush Flat No. 4</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Brush Round No. 2</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Brush Round No. 4</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C3 – Red</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C305 – Gray FS36118</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C48 – Clear Yellow</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C58 – Orange Yellow</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C59 – Orange</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C65 – Bright Blue</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C66 – Bright Green</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C67 – Purple</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C68 – Red Madder</t>
+  </si>
+  <si>
+    <t>Mr. Hobby Color C79 – Shine Red</t>
+  </si>
+  <si>
+    <t>Mr. Hobby – Mr. Cement Deluxe</t>
+  </si>
+  <si>
+    <t>Mr. Masking Tape 10mm x 18m</t>
+  </si>
+  <si>
+    <t>Mr. Masking Tape 6mm x 18m</t>
+  </si>
+  <si>
+    <t>Mr. Premium Top Coat Semi Gloss 88ml – B602</t>
+  </si>
+  <si>
+    <t>Mr. Top Coat Flat 88ml – B503</t>
+  </si>
+  <si>
+    <t>Mr. Top Coat Gloss 88ml – B501</t>
+  </si>
+  <si>
+    <t>Mr. Top Coat Semi Gloss 88ml – B502</t>
+  </si>
+  <si>
+    <t>Mr. Turn Table L</t>
+  </si>
+  <si>
+    <t>Mr. Waterproof Sandpaper FINE set</t>
+  </si>
+  <si>
+    <t>Mr. Waterproof Sandpaper ROUGH set</t>
+  </si>
+  <si>
+    <t>[One Piece] Going Merry</t>
+  </si>
+  <si>
+    <t>[One Piece] Going Merry – Grand Ship Collection</t>
+  </si>
+  <si>
+    <t>[One Piece] Red Force</t>
+  </si>
+  <si>
+    <t>[One Piece] Thousand Sunny – New World Ver.</t>
+  </si>
+  <si>
+    <t>Orga Itsuka – Official IBO Chara Key Chain</t>
+  </si>
+  <si>
+    <t>[PokePla] Pikachu – Plamo Collection Select Series No. 19</t>
+  </si>
+  <si>
+    <t>[RE1/100] Type 89 Base Jabber (Unicorn Ver.)</t>
+  </si>
+  <si>
+    <t>[RG] 00 Raiser</t>
+  </si>
+  <si>
+    <t>RG 00 Raiser Bandai Water Decal</t>
+  </si>
+  <si>
+    <t>[RG] Aile Strike Gundam</t>
+  </si>
+  <si>
     <t>[RG] Build Strike Gundam Full Package</t>
   </si>
   <si>
     <t>[RG] Crossbone Gundam X1</t>
   </si>
   <si>
+    <t>[RG] Destiny Gundam</t>
+  </si>
+  <si>
     <t>[RG] Force Impulse Gundam</t>
   </si>
   <si>
+    <t>[RG] Full Armor Unicorn Gundam</t>
+  </si>
+  <si>
     <t>[RG] GNT-0000 00 Qan[T] (QanT / Quanta)</t>
   </si>
   <si>
     <t>[RG] Gundam Astray Red Frame</t>
   </si>
   <si>
+    <t>RG Gundam Astray Red Frame Bandai Water Decal</t>
+  </si>
+  <si>
+    <t>[RG] MS-06F Zaku II (Mass Production)</t>
+  </si>
+  <si>
+    <t>[RG] MS-06S Char’s Zaku II (RED)</t>
+  </si>
+  <si>
+    <t>[RG] RX-178 Gundam MK II TITANS</t>
+  </si>
+  <si>
     <t>[RG] RX-78-2 Gundam</t>
   </si>
   <si>
@@ -250,12 +985,27 @@
     <t>[RG] RX-78GP01Fb Gundam GP01 Full Burnern</t>
   </si>
   <si>
+    <t>[RG] RX-93 Nu Gundam</t>
+  </si>
+  <si>
+    <t>[RG] RX-93 Nu Gundam + Fin Funnel Effect Set</t>
+  </si>
+  <si>
     <t>[SD] Build Strike Full Gundam Package (BB)</t>
   </si>
   <si>
+    <t>[SD] Cross Silhouette Frame Red (SDCS)</t>
+  </si>
+  <si>
+    <t>[SD] Earthree Gundam (SDCS)</t>
+  </si>
+  <si>
     <t>[SD] EX Valkylander</t>
   </si>
   <si>
+    <t>[SD] Guncannon (BB225)</t>
+  </si>
+  <si>
     <t>[SD] Gundam Astray Gold Frame (BB)</t>
   </si>
   <si>
@@ -265,6 +1015,114 @@
     <t>[SD] Gundam Barbatos Lupus Rex (SDCS)</t>
   </si>
   <si>
+    <t>[SD] Hi Nu Gundam (BB384)</t>
+  </si>
+  <si>
+    <t>[SD] Nightingale (SDCS)</t>
+  </si>
+  <si>
+    <t>[SD] RX-0 Unicorn Gundam (SDCS)</t>
+  </si>
+  <si>
+    <t>[SD] RX-78-2 Gundam &amp; Cross Silhouette Frame Set (SDCS)</t>
+  </si>
+  <si>
+    <t>[SD] RX-93 Nu Gundam</t>
+  </si>
+  <si>
+    <t>[SD] RX Zeromaru</t>
+  </si>
+  <si>
+    <t>[SD] SDCS Silhouette Booster (Gray)</t>
+  </si>
+  <si>
+    <t>[SD] Star Winning Gundam</t>
+  </si>
+  <si>
+    <t>[SD] Valkylander</t>
+  </si>
+  <si>
+    <t>[SDCS] Freedom Gundam</t>
+  </si>
+  <si>
+    <t>[SD] Gundam 00 Diver Ace (SDCS)</t>
+  </si>
+  <si>
+    <t>System Base 001 – Gray</t>
+  </si>
+  <si>
+    <t>System Base 001 – Gun Metal Color</t>
+  </si>
+  <si>
+    <t>System Base 001 – White Color</t>
+  </si>
+  <si>
+    <t>Tamiya Design Knife Replacement Blade – 30pcs</t>
+  </si>
+  <si>
+    <t>Tamiya Enamel Thinner X20 – 250ml</t>
+  </si>
+  <si>
+    <t>Tamiya Enamel Thinner X20 – 40ml</t>
+  </si>
+  <si>
+    <t>Tamiya Extra Thin Cement – Quick Setting</t>
+  </si>
+  <si>
+    <t>Tamiya Limonene Cement</t>
+  </si>
+  <si>
+    <t>Tamiya Modeler’s Knife w/ 25pcs Spare Blade</t>
+  </si>
+  <si>
+    <t>Tamiya Modeler’s Knife Replacement Blade – 25pcs</t>
+  </si>
+  <si>
+    <t>Tamiya Panel Line Accent Color – Brown</t>
+  </si>
+  <si>
+    <t>Tamiya Panel Line Accent Color – Dark Brown</t>
+  </si>
+  <si>
+    <t>Tamiya Panel Line Accent Color – Gray</t>
+  </si>
+  <si>
+    <t>Tamiya Panel Line Accent Color – Light Gray</t>
+  </si>
+  <si>
+    <t>Wave File Stick 1000 (Hard) – 10pcs</t>
+  </si>
+  <si>
+    <t>Wave File Stick 1000 (Soft) – 3pcs – HT614</t>
+  </si>
+  <si>
+    <t>Wave File Stick 1200 (Hard) – 10pcs</t>
+  </si>
+  <si>
+    <t>Wave File Stick 1200 (Soft) – 3pcs – HT615</t>
+  </si>
+  <si>
+    <t>Wave File Stick 400 (Soft) – 3pcs – HT611</t>
+  </si>
+  <si>
+    <t>Wave File Stick 600 (Soft) – 3pcs – HT612</t>
+  </si>
+  <si>
+    <t>Wave File Stick 600 Soft – 10pcs (HT-617)</t>
+  </si>
+  <si>
+    <t>Wave File Stick 800 Soft – 10pcs (HT-618)</t>
+  </si>
+  <si>
+    <t>[Zoids] Liger Zero Jager – Marking Plus Ver.</t>
+  </si>
+  <si>
+    <t>[Zoids] Liger Zero – Marking Plus Ver.</t>
+  </si>
+  <si>
+    <t>[Zoids] Liger Zero Panzer – Marking Plus Ver.</t>
+  </si>
+  <si>
     <t>In stock</t>
   </si>
   <si>
@@ -277,16 +1135,64 @@
     <t>Kotobukiya</t>
   </si>
   <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Action Base &amp; Misc.</t>
+  </si>
+  <si>
+    <t>Collectibles</t>
+  </si>
+  <si>
+    <t>Gundam Converge</t>
+  </si>
+  <si>
+    <t>Collectibles, Gundam Converge</t>
+  </si>
+  <si>
     <t>Non Scale</t>
   </si>
   <si>
+    <t>GFrame</t>
+  </si>
+  <si>
+    <t>Collectibles, GFrame</t>
+  </si>
+  <si>
+    <t>[GM] Gundam Marker</t>
+  </si>
+  <si>
+    <t>Decal</t>
+  </si>
+  <si>
+    <t>[HG] High Grade, P-Bandai &amp; Limited Ed.</t>
+  </si>
+  <si>
+    <t>[Hi-RM] High Resolution Model</t>
+  </si>
+  <si>
     <t>[MG] Master Grade</t>
   </si>
   <si>
+    <t>[MG] Master Grade, P-Bandai &amp; Limited Ed.</t>
+  </si>
+  <si>
+    <t>Builder Kit</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>[1/100] No Grade &amp; RE, Non Scale, P-Bandai &amp; Limited Ed.</t>
+  </si>
+  <si>
     <t>[RG] Real Grade</t>
   </si>
   <si>
     <t>[SD] Super Deformed</t>
+  </si>
+  <si>
+    <t>Zoids</t>
   </si>
 </sst>
 </file>
@@ -644,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -677,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,10 +1594,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -699,10 +1605,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -710,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -721,10 +1627,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -732,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -743,10 +1649,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -754,10 +1660,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -765,10 +1671,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -776,10 +1682,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -787,10 +1693,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -798,10 +1704,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -809,10 +1715,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -820,10 +1726,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -831,10 +1737,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -842,10 +1748,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -853,10 +1759,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -864,10 +1770,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -875,10 +1781,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -886,10 +1792,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -897,10 +1803,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -908,10 +1814,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -919,10 +1825,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -930,10 +1836,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -941,10 +1847,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -952,10 +1858,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -963,10 +1869,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -974,10 +1880,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -985,10 +1891,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -996,10 +1902,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1007,10 +1913,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1018,10 +1924,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1029,10 +1935,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1040,10 +1946,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1051,10 +1957,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1062,10 +1968,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1073,10 +1979,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1084,10 +1990,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1095,10 +2001,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1106,10 +2012,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1117,10 +2023,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1128,10 +2034,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1139,10 +2045,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1150,10 +2056,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1161,10 +2067,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1172,10 +2078,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1183,10 +2089,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1194,10 +2100,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1205,10 +2111,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1216,10 +2122,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1227,10 +2133,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1238,10 +2144,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1249,10 +2155,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1260,10 +2166,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1271,10 +2177,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1282,10 +2188,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1293,10 +2199,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1304,10 +2210,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1315,10 +2221,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1326,10 +2232,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1337,10 +2243,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1348,10 +2254,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1359,10 +2265,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1370,10 +2276,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1381,10 +2287,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1392,10 +2298,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1403,10 +2309,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1414,10 +2320,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1425,10 +2331,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1436,10 +2342,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1447,10 +2353,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1458,10 +2364,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1469,10 +2375,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1480,10 +2386,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1491,10 +2397,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1502,10 +2408,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1513,10 +2419,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1524,10 +2430,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1535,10 +2441,3156 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>83</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C83" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>369</v>
+      </c>
+      <c r="C85" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>369</v>
+      </c>
+      <c r="C86" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>370</v>
+      </c>
+      <c r="C90" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>370</v>
+      </c>
+      <c r="C93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+      <c r="C95" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>369</v>
+      </c>
+      <c r="C101" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>369</v>
+      </c>
+      <c r="C102" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>370</v>
+      </c>
+      <c r="C103" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>369</v>
+      </c>
+      <c r="C104" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>369</v>
+      </c>
+      <c r="C105" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>369</v>
+      </c>
+      <c r="C107" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>369</v>
+      </c>
+      <c r="C108" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>370</v>
+      </c>
+      <c r="C109" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>369</v>
+      </c>
+      <c r="C111" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>370</v>
+      </c>
+      <c r="C112" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>369</v>
+      </c>
+      <c r="C114" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>369</v>
+      </c>
+      <c r="C115" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>369</v>
+      </c>
+      <c r="C118" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>369</v>
+      </c>
+      <c r="C121" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>369</v>
+      </c>
+      <c r="C123" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>370</v>
+      </c>
+      <c r="C126" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C127" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>369</v>
+      </c>
+      <c r="C129" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>369</v>
+      </c>
+      <c r="C132" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>369</v>
+      </c>
+      <c r="C134" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>369</v>
+      </c>
+      <c r="C136" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>369</v>
+      </c>
+      <c r="C137" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>369</v>
+      </c>
+      <c r="C140" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>370</v>
+      </c>
+      <c r="C144" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>370</v>
+      </c>
+      <c r="C146" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>369</v>
+      </c>
+      <c r="C147" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>370</v>
+      </c>
+      <c r="C148" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>369</v>
+      </c>
+      <c r="C149" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>369</v>
+      </c>
+      <c r="C150" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>369</v>
+      </c>
+      <c r="C151" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>369</v>
+      </c>
+      <c r="C152" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>370</v>
+      </c>
+      <c r="C153" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>369</v>
+      </c>
+      <c r="C154" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>369</v>
+      </c>
+      <c r="C155" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>369</v>
+      </c>
+      <c r="C156" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>370</v>
+      </c>
+      <c r="C157" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>369</v>
+      </c>
+      <c r="C158" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>370</v>
+      </c>
+      <c r="C159" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>370</v>
+      </c>
+      <c r="C160" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>369</v>
+      </c>
+      <c r="C161" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>369</v>
+      </c>
+      <c r="C162" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>369</v>
+      </c>
+      <c r="C164" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>369</v>
+      </c>
+      <c r="C166" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>369</v>
+      </c>
+      <c r="C167" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>369</v>
+      </c>
+      <c r="C168" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>369</v>
+      </c>
+      <c r="C169" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>370</v>
+      </c>
+      <c r="C171" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>370</v>
+      </c>
+      <c r="C172" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>369</v>
+      </c>
+      <c r="C174" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>370</v>
+      </c>
+      <c r="C175" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>370</v>
+      </c>
+      <c r="C176" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>370</v>
+      </c>
+      <c r="C177" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>370</v>
+      </c>
+      <c r="C182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>370</v>
+      </c>
+      <c r="C183" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>369</v>
+      </c>
+      <c r="C189" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>370</v>
+      </c>
+      <c r="C190" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>369</v>
+      </c>
+      <c r="C191" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>370</v>
+      </c>
+      <c r="C193" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>370</v>
+      </c>
+      <c r="C194" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>369</v>
+      </c>
+      <c r="C195" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>369</v>
+      </c>
+      <c r="C196" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>369</v>
+      </c>
+      <c r="C197" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>369</v>
+      </c>
+      <c r="C198" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>370</v>
+      </c>
+      <c r="C199" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>369</v>
+      </c>
+      <c r="C200" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>369</v>
+      </c>
+      <c r="C201" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>369</v>
+      </c>
+      <c r="C202" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>369</v>
+      </c>
+      <c r="C203" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>370</v>
+      </c>
+      <c r="C204" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>370</v>
+      </c>
+      <c r="C205" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>370</v>
+      </c>
+      <c r="C206" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>369</v>
+      </c>
+      <c r="C207" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>369</v>
+      </c>
+      <c r="C208" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>370</v>
+      </c>
+      <c r="C209" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>369</v>
+      </c>
+      <c r="C210" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>369</v>
+      </c>
+      <c r="C211" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>370</v>
+      </c>
+      <c r="C212" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>370</v>
+      </c>
+      <c r="C213" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>369</v>
+      </c>
+      <c r="C214" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>369</v>
+      </c>
+      <c r="C215" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>370</v>
+      </c>
+      <c r="C216" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>370</v>
+      </c>
+      <c r="C217" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>370</v>
+      </c>
+      <c r="C218" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>369</v>
+      </c>
+      <c r="C219" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>369</v>
+      </c>
+      <c r="C220" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>369</v>
+      </c>
+      <c r="C221" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>369</v>
+      </c>
+      <c r="C222" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>370</v>
+      </c>
+      <c r="C223" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>370</v>
+      </c>
+      <c r="C224" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>370</v>
+      </c>
+      <c r="C225" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>369</v>
+      </c>
+      <c r="C226" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>369</v>
+      </c>
+      <c r="C227" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>370</v>
+      </c>
+      <c r="C228" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>369</v>
+      </c>
+      <c r="C229" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>370</v>
+      </c>
+      <c r="C230" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>369</v>
+      </c>
+      <c r="C231" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>370</v>
+      </c>
+      <c r="C232" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>369</v>
+      </c>
+      <c r="C233" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>370</v>
+      </c>
+      <c r="C234" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>370</v>
+      </c>
+      <c r="C235" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>370</v>
+      </c>
+      <c r="C236" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>369</v>
+      </c>
+      <c r="C237" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>370</v>
+      </c>
+      <c r="C238" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s">
+        <v>370</v>
+      </c>
+      <c r="C239" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>370</v>
+      </c>
+      <c r="C240" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>369</v>
+      </c>
+      <c r="C241" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>370</v>
+      </c>
+      <c r="C242" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>369</v>
+      </c>
+      <c r="C243" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>369</v>
+      </c>
+      <c r="C244" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s">
+        <v>369</v>
+      </c>
+      <c r="C245" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s">
+        <v>369</v>
+      </c>
+      <c r="C246" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>369</v>
+      </c>
+      <c r="C247" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s">
+        <v>369</v>
+      </c>
+      <c r="C248" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>370</v>
+      </c>
+      <c r="C249" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>369</v>
+      </c>
+      <c r="C250" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s">
+        <v>369</v>
+      </c>
+      <c r="C251" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>370</v>
+      </c>
+      <c r="C252" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>369</v>
+      </c>
+      <c r="C253" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s">
+        <v>369</v>
+      </c>
+      <c r="C254" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s">
+        <v>370</v>
+      </c>
+      <c r="C255" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="s">
+        <v>370</v>
+      </c>
+      <c r="C256" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="s">
+        <v>370</v>
+      </c>
+      <c r="C257" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="s">
+        <v>369</v>
+      </c>
+      <c r="C258" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="s">
+        <v>370</v>
+      </c>
+      <c r="C259" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="s">
+        <v>369</v>
+      </c>
+      <c r="C260" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="s">
+        <v>369</v>
+      </c>
+      <c r="C261" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="s">
+        <v>369</v>
+      </c>
+      <c r="C262" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s">
+        <v>369</v>
+      </c>
+      <c r="C263" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>369</v>
+      </c>
+      <c r="C264" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>369</v>
+      </c>
+      <c r="C265" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>369</v>
+      </c>
+      <c r="C266" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s">
+        <v>369</v>
+      </c>
+      <c r="C267" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s">
+        <v>369</v>
+      </c>
+      <c r="C268" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>369</v>
+      </c>
+      <c r="C269" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s">
+        <v>369</v>
+      </c>
+      <c r="C270" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s">
+        <v>369</v>
+      </c>
+      <c r="C271" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>369</v>
+      </c>
+      <c r="C272" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
+        <v>369</v>
+      </c>
+      <c r="C273" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>370</v>
+      </c>
+      <c r="C274" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s">
+        <v>369</v>
+      </c>
+      <c r="C275" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>370</v>
+      </c>
+      <c r="C276" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s">
+        <v>370</v>
+      </c>
+      <c r="C277" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="s">
+        <v>369</v>
+      </c>
+      <c r="C278" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" t="s">
+        <v>369</v>
+      </c>
+      <c r="C279" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" t="s">
+        <v>369</v>
+      </c>
+      <c r="C280" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="s">
+        <v>369</v>
+      </c>
+      <c r="C281" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="s">
+        <v>369</v>
+      </c>
+      <c r="C282" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" t="s">
+        <v>369</v>
+      </c>
+      <c r="C283" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" t="s">
+        <v>369</v>
+      </c>
+      <c r="C284" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" t="s">
+        <v>369</v>
+      </c>
+      <c r="C285" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" t="s">
+        <v>369</v>
+      </c>
+      <c r="C286" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" t="s">
+        <v>370</v>
+      </c>
+      <c r="C287" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" t="s">
+        <v>369</v>
+      </c>
+      <c r="C288" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" t="s">
+        <v>369</v>
+      </c>
+      <c r="C289" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="s">
+        <v>370</v>
+      </c>
+      <c r="C290" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" t="s">
+        <v>369</v>
+      </c>
+      <c r="C291" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" t="s">
+        <v>369</v>
+      </c>
+      <c r="C292" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" t="s">
+        <v>369</v>
+      </c>
+      <c r="C293" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" t="s">
+        <v>369</v>
+      </c>
+      <c r="C294" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" t="s">
+        <v>369</v>
+      </c>
+      <c r="C295" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" t="s">
+        <v>370</v>
+      </c>
+      <c r="C296" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" t="s">
+        <v>369</v>
+      </c>
+      <c r="C297" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" t="s">
+        <v>369</v>
+      </c>
+      <c r="C298" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" t="s">
+        <v>369</v>
+      </c>
+      <c r="C299" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" t="s">
+        <v>370</v>
+      </c>
+      <c r="C300" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" t="s">
+        <v>370</v>
+      </c>
+      <c r="C301" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" t="s">
+        <v>370</v>
+      </c>
+      <c r="C302" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" t="s">
+        <v>369</v>
+      </c>
+      <c r="C303" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" t="s">
+        <v>370</v>
+      </c>
+      <c r="C304" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" t="s">
+        <v>369</v>
+      </c>
+      <c r="C305" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" t="s">
+        <v>369</v>
+      </c>
+      <c r="C306" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" t="s">
+        <v>369</v>
+      </c>
+      <c r="C307" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" t="s">
+        <v>369</v>
+      </c>
+      <c r="C308" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" t="s">
+        <v>369</v>
+      </c>
+      <c r="C309" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" t="s">
+        <v>370</v>
+      </c>
+      <c r="C310" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" t="s">
+        <v>369</v>
+      </c>
+      <c r="C311" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" t="s">
+        <v>370</v>
+      </c>
+      <c r="C312" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" t="s">
+        <v>369</v>
+      </c>
+      <c r="C313" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" t="s">
+        <v>369</v>
+      </c>
+      <c r="C314" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" t="s">
+        <v>370</v>
+      </c>
+      <c r="C315" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" t="s">
+        <v>370</v>
+      </c>
+      <c r="C316" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" t="s">
+        <v>370</v>
+      </c>
+      <c r="C317" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" t="s">
+        <v>369</v>
+      </c>
+      <c r="C318" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" t="s">
+        <v>369</v>
+      </c>
+      <c r="C319" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" t="s">
+        <v>369</v>
+      </c>
+      <c r="C320" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" t="s">
+        <v>370</v>
+      </c>
+      <c r="C321" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" t="s">
+        <v>369</v>
+      </c>
+      <c r="C322" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" t="s">
+        <v>370</v>
+      </c>
+      <c r="C323" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" t="s">
+        <v>369</v>
+      </c>
+      <c r="C324" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" t="s">
+        <v>369</v>
+      </c>
+      <c r="C325" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" t="s">
+        <v>370</v>
+      </c>
+      <c r="C326" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" t="s">
+        <v>369</v>
+      </c>
+      <c r="C327" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" t="s">
+        <v>369</v>
+      </c>
+      <c r="C328" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" t="s">
+        <v>369</v>
+      </c>
+      <c r="C329" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" t="s">
+        <v>369</v>
+      </c>
+      <c r="C330" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" t="s">
+        <v>369</v>
+      </c>
+      <c r="C331" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" t="s">
+        <v>370</v>
+      </c>
+      <c r="C332" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" t="s">
+        <v>370</v>
+      </c>
+      <c r="C333" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" t="s">
+        <v>369</v>
+      </c>
+      <c r="C334" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" t="s">
+        <v>369</v>
+      </c>
+      <c r="C335" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" t="s">
+        <v>369</v>
+      </c>
+      <c r="C336" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" t="s">
+        <v>369</v>
+      </c>
+      <c r="C337" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" t="s">
+        <v>369</v>
+      </c>
+      <c r="C338" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" t="s">
+        <v>369</v>
+      </c>
+      <c r="C339" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" t="s">
+        <v>369</v>
+      </c>
+      <c r="C340" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" t="s">
+        <v>369</v>
+      </c>
+      <c r="C341" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" t="s">
+        <v>369</v>
+      </c>
+      <c r="C342" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" t="s">
+        <v>370</v>
+      </c>
+      <c r="C343" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" t="s">
+        <v>370</v>
+      </c>
+      <c r="C344" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" t="s">
+        <v>369</v>
+      </c>
+      <c r="C345" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" t="s">
+        <v>369</v>
+      </c>
+      <c r="C346" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" t="s">
+        <v>369</v>
+      </c>
+      <c r="C347" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" t="s">
+        <v>369</v>
+      </c>
+      <c r="C348" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" t="s">
+        <v>369</v>
+      </c>
+      <c r="C349" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" t="s">
+        <v>369</v>
+      </c>
+      <c r="C350" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" t="s">
+        <v>369</v>
+      </c>
+      <c r="C351" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" t="s">
+        <v>369</v>
+      </c>
+      <c r="C352" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" t="s">
+        <v>369</v>
+      </c>
+      <c r="C353" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="s">
+        <v>369</v>
+      </c>
+      <c r="C354" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" t="s">
+        <v>369</v>
+      </c>
+      <c r="C355" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="s">
+        <v>369</v>
+      </c>
+      <c r="C356" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" t="s">
+        <v>370</v>
+      </c>
+      <c r="C357" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" t="s">
+        <v>369</v>
+      </c>
+      <c r="C358" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" t="s">
+        <v>369</v>
+      </c>
+      <c r="C359" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" t="s">
+        <v>369</v>
+      </c>
+      <c r="C360" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" t="s">
+        <v>369</v>
+      </c>
+      <c r="C361" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" t="s">
+        <v>369</v>
+      </c>
+      <c r="C362" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" t="s">
+        <v>370</v>
+      </c>
+      <c r="C363" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364" t="s">
+        <v>370</v>
+      </c>
+      <c r="C364" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" t="s">
+        <v>369</v>
+      </c>
+      <c r="C365" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" t="s">
+        <v>369</v>
+      </c>
+      <c r="C366" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" t="s">
+        <v>369</v>
+      </c>
+      <c r="C367" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
